--- a/Group.xlsx
+++ b/Group.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yejih\Documents\semester04\ISP\ISP Projekt\Rilsa_map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yejih\Dropbox\PRO\Rilsa\PROJETS\24 - YEJI\email data analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A632A67-F5CC-4F05-9289-4398437CD520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708BD259-239C-4CF6-B7EF-F5C6650CD0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{FE47F53D-8DE6-4D39-8F84-C4514495B7E8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
   <si>
     <t>Display Name</t>
   </si>
@@ -246,6 +246,27 @@
   </si>
   <si>
     <t>Nyon</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>MAV</t>
+  </si>
+  <si>
+    <t>NAV</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>marketing</t>
+  </si>
+  <si>
+    <t>Stagiaires</t>
   </si>
 </sst>
 </file>
@@ -650,10 +671,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9CD269-AF1E-4BA6-AF61-93A73DDEAC25}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,7 +691,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -677,7 +699,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -685,7 +707,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -693,7 +715,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -701,12 +723,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -714,7 +736,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -722,12 +744,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -735,12 +757,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -748,7 +770,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -756,7 +778,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -764,7 +786,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -772,15 +794,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -788,7 +810,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -796,56 +818,59 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -853,7 +878,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -861,17 +886,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -879,7 +904,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -887,32 +912,41 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -920,22 +954,22 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -943,25 +977,31 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
@@ -969,12 +1009,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -982,7 +1022,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
@@ -994,8 +1034,11 @@
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>49</v>
       </c>
@@ -1003,12 +1046,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>51</v>
       </c>
@@ -1016,7 +1059,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -1024,7 +1067,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>53</v>
       </c>
@@ -1032,35 +1075,38 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
@@ -1068,7 +1114,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
@@ -1077,7 +1123,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B62" xr:uid="{7B9CD269-AF1E-4BA6-AF61-93A73DDEAC25}"/>
+  <autoFilter ref="A1:B62" xr:uid="{7B9CD269-AF1E-4BA6-AF61-93A73DDEAC25}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Contentieux"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Group.xlsx
+++ b/Group.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yejih\Dropbox\PRO\Rilsa\PROJETS\24 - YEJI\email data analyse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yejih\Documents\semester04\ISP\ISP Projekt\Rilsa_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708BD259-239C-4CF6-B7EF-F5C6650CD0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B249C9-C0F8-4DE7-ABE8-2317BC727194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{FE47F53D-8DE6-4D39-8F84-C4514495B7E8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>Display Name</t>
   </si>
@@ -255,9 +255,6 @@
   </si>
   <si>
     <t>MAV</t>
-  </si>
-  <si>
-    <t>NAV</t>
   </si>
   <si>
     <t>Direction</t>
@@ -675,7 +672,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,7 +720,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -744,7 +741,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -757,7 +754,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -818,7 +815,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -828,7 +825,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -839,7 +836,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -860,12 +857,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -886,12 +883,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -912,12 +909,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -935,7 +932,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -943,7 +940,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -954,17 +951,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -982,7 +979,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -990,7 +987,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -998,7 +995,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1009,7 +1006,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
@@ -1030,7 +1027,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
@@ -1046,7 +1043,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -1080,15 +1077,18 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
@@ -1124,11 +1124,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:B62" xr:uid="{7B9CD269-AF1E-4BA6-AF61-93A73DDEAC25}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Contentieux"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="1">
       <filters blank="1"/>
     </filterColumn>
